--- a/src/test/resources/Тестовые сценарии Redmine.xlsx
+++ b/src/test/resources/Тестовые сценарии Redmine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gadji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Программирование (JAVA)\AutomatizationRedmine\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD3515-71FA-4188-860F-2094FC4EF902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014F924-C809-4984-990A-B45C0D18AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
